--- a/wash_P/NED.xlsx
+++ b/wash_P/NED.xlsx
@@ -53018,7 +53018,7 @@
         <v>0</v>
       </c>
       <c r="EW17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX17" t="n">
         <v>0</v>
@@ -63029,7 +63029,7 @@
         <v>0</v>
       </c>
       <c r="MX20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MY20" t="n">
         <v>0</v>
@@ -63038,7 +63038,7 @@
         <v>0</v>
       </c>
       <c r="NA20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NB20" t="n">
         <v>0</v>
@@ -66844,7 +66844,7 @@
         <v>0</v>
       </c>
       <c r="VS21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="VT21" t="n">
         <v>0</v>
@@ -67189,7 +67189,7 @@
         <v>0</v>
       </c>
       <c r="AAD21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AAE21" t="n">
         <v>0</v>
@@ -67198,7 +67198,7 @@
         <v>0</v>
       </c>
       <c r="AAG21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AAH21" t="n">
         <v>0</v>
@@ -88758,7 +88758,7 @@
         <v>0</v>
       </c>
       <c r="VY28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="VZ28" t="n">
         <v>0</v>
@@ -91907,7 +91907,7 @@
         <v>0</v>
       </c>
       <c r="WF29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="WG29" t="n">
         <v>0</v>
